--- a/dependencies/brucella/abortus1/script_dependents/RemoveFromAnalysis.xlsx
+++ b/dependencies/brucella/abortus1/script_dependents/RemoveFromAnalysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\abortus1\script_dependents\script2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\brucella\abortus1\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>B82-2330-Broad</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>B17-0712-TRACH</t>
+  </si>
+  <si>
+    <t>18-006620-BA-01-16</t>
+  </si>
+  <si>
+    <t>Mix 1,2,4 and 6,7,9</t>
   </si>
 </sst>
 </file>
@@ -425,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -513,69 +519,77 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2002734562</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/dependencies/brucella/abortus1/script_dependents/RemoveFromAnalysis.xlsx
+++ b/dependencies/brucella/abortus1/script_dependents/RemoveFromAnalysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>B82-2330-Broad</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>Mix 1,2,4 and 6,7,9</t>
+  </si>
+  <si>
+    <t>18-031816-B381</t>
+  </si>
+  <si>
+    <t>Low Cov</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -592,6 +598,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dependencies/brucella/abortus1/script_dependents/RemoveFromAnalysis.xlsx
+++ b/dependencies/brucella/abortus1/script_dependents/RemoveFromAnalysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>B82-2330-Broad</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Low Cov</t>
+  </si>
+  <si>
+    <t>B3001232161-cat</t>
   </si>
 </sst>
 </file>
@@ -437,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -606,6 +609,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
